--- a/biology/Médecine/Marc_Amsler/Marc_Amsler.xlsx
+++ b/biology/Médecine/Marc_Amsler/Marc_Amsler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marc Amsler, né le 5 février 1891 à Vevey en Suisse et mort le 3 mai a Sierre en Suisse 1968, est un ophtalmologue et un professeur suisse d’ophtalmologie. 
 Occupant successivement des postes émérites, au sein des hôpitaux ophtalmiques suisses de Zurich et Lausanne, il est renommé à l’international pour ses apports sur la dégénérescence maculaire liée à l’âge.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Père du Dr. Etienne Amsler chirurgien urologue, Marc Amsler est né à Vevey, après des études d’ophtalmologies à Lausanne, Zurich et Paris, il devient l’assistant du professeur Jules Gonin à Lausanne. Il s’impose naturellement comme main droite du professeur et l’aide dans ses recherches qui révolutionnent les idées établies sur la pathologie du détachement de la rétine, allant jusqu’à mettre en avant un traitement pour cette condition jusqu’alors désespérément incurable. 
 À la mort de Jules Gonin en 1935, il lui succède comme professeur d’ophtalmologie au sein de l'Hôpital Ophtalmique Jules-Gonin jusqu’en 1944, date où il quitte Lausanne pour succéder à Alfred Vogt à L’université de Zurich.
@@ -546,7 +560,9 @@
           <t>Réalisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Principalement connu pour sa célèbre grille d’Amsler, permettant de diagnostiquer la dégénérescence maculaire liée à l’âge, il étudie également les humeurs aqueuses, contribue grandement à la compréhension et au traitement de l’uvéite par la technique de fluorescence et fait la lumière sur les problèmes de Kératocône.
 Il est le premier à effectuer une greffe de la cornée à la clinique des yeux de Zurich en 1951.
@@ -582,7 +598,9 @@
           <t>Honneurs et décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Grand connaisseur de Londres, qu’il visite régulièrement, il y est distingué Membre d’Honneur de la Société d’Ophtalmologie du Royaume Uni.
 </t>
